--- a/be/formatFile/endend.xlsx
+++ b/be/formatFile/endend.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
@@ -35,24 +35,6 @@
   </si>
   <si>
     <t>Điểm thi lại cuối kì</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CT02312</t>
-  </si>
-  <si>
-    <t>Phạm Văn A</t>
-  </si>
-  <si>
-    <t>CT4B</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -98,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -130,32 +112,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/be/formatFile/endend.xlsx
+++ b/be/formatFile/endend.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>STT</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>Điểm thi lại cuối kì</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CT13221</t>
+  </si>
+  <si>
+    <t>NGUYEN VAN MANH</t>
+  </si>
+  <si>
+    <t>CT3B</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -80,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -112,6 +130,32 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/be/formatFile/endend.xlsx
+++ b/be/formatFile/endend.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>STT</t>
   </si>
@@ -35,6 +35,36 @@
   </si>
   <si>
     <t>Điểm thi lại cuối kì</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CT030209</t>
+  </si>
+  <si>
+    <t>NGUYỄN MẠNH CƯỜNG</t>
+  </si>
+  <si>
+    <t>CT3B</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CT030211</t>
+  </si>
+  <si>
+    <t>ĐỖ THỊ NGA</t>
+  </si>
+  <si>
+    <t>CT3C</t>
   </si>
 </sst>
 </file>
@@ -80,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -112,6 +142,58 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
